--- a/Benchmarking/ONeill/Clean_Oneill_SCSSCalc_July2020_Calc_Sulf.xlsx
+++ b/Benchmarking/ONeill/Clean_Oneill_SCSSCalc_July2020_Calc_Sulf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PySulfSat\PySCSS_Structure\Benchmarking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\Benchmarking\ONeill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C00CBA-7B18-4E71-837E-F9F811D89EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70EC067-CA32-4FFC-B8A5-6F4EA478AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCSS Calculator" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5665,44 +5665,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="W5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="13" max="14" width="10.796875" style="1"/>
-    <col min="15" max="16" width="11.69921875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="3.19921875" style="2" customWidth="1"/>
-    <col min="18" max="19" width="13.296875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3.296875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.19921875" style="84" customWidth="1"/>
-    <col min="22" max="23" width="10.796875" style="2"/>
-    <col min="24" max="24" width="3.296875" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="11.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="84" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="3.33203125" customWidth="1"/>
     <col min="35" max="35" width="3" customWidth="1"/>
-    <col min="36" max="36" width="13.296875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="13.296875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.296875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="3.19921875" customWidth="1"/>
-    <col min="40" max="40" width="12.19921875" style="3" customWidth="1"/>
-    <col min="41" max="41" width="11.69921875" style="3" customWidth="1"/>
-    <col min="42" max="42" width="10.796875" style="3"/>
-    <col min="43" max="43" width="10.796875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="3.1640625" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="10.83203125" style="3"/>
+    <col min="43" max="43" width="10.83203125" style="3" customWidth="1"/>
     <col min="44" max="44" width="15" style="3" customWidth="1"/>
-    <col min="45" max="45" width="3.19921875" customWidth="1"/>
-    <col min="46" max="51" width="10.796875" style="3"/>
+    <col min="45" max="45" width="3.1640625" customWidth="1"/>
+    <col min="46" max="51" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51">
       <c r="B3" s="90" t="s">
         <v>38</v>
       </c>
@@ -5720,14 +5720,14 @@
       <c r="O3" s="66"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51">
       <c r="B4" s="93" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="95"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51">
       <c r="B5" s="96" t="s">
         <v>40</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="AX5"/>
       <c r="AY5"/>
     </row>
-    <row r="6" spans="1:51" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="16" customHeight="1">
       <c r="B6" s="99" t="s">
         <v>47</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="AX6"/>
       <c r="AY6"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51">
       <c r="B7" s="102"/>
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
@@ -5776,7 +5776,7 @@
       <c r="AX7"/>
       <c r="AY7"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
@@ -5791,12 +5791,12 @@
       <c r="AX8"/>
       <c r="AY8"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51">
       <c r="AW9"/>
       <c r="AX9"/>
       <c r="AY9"/>
     </row>
-    <row r="10" spans="1:51" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" ht="20" customHeight="1" thickBot="1">
       <c r="B10" s="111" t="s">
         <v>15</v>
       </c>
@@ -5832,12 +5832,12 @@
       <c r="AX10"/>
       <c r="AY10"/>
     </row>
-    <row r="11" spans="1:51" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="9" customHeight="1" thickTop="1">
       <c r="AW11"/>
       <c r="AX11"/>
       <c r="AY11"/>
     </row>
-    <row r="12" spans="1:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:51" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="83" t="s">
         <v>0</v>
       </c>
@@ -5964,7 +5964,7 @@
       <c r="AX12"/>
       <c r="AY12"/>
     </row>
-    <row r="13" spans="1:51" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="9" customHeight="1" thickTop="1">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -6016,7 +6016,7 @@
       <c r="AX13"/>
       <c r="AY13"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51">
       <c r="B14" s="52">
         <v>175</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="AX14"/>
       <c r="AY14"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51">
       <c r="B15" s="17">
         <v>176</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="AX15"/>
       <c r="AY15"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51">
       <c r="B16" s="17">
         <v>177</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="AX16"/>
       <c r="AY16"/>
     </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:51">
       <c r="B17" s="17">
         <v>178</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="AX17"/>
       <c r="AY17"/>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:51">
       <c r="B18" s="17">
         <v>179</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="AX18"/>
       <c r="AY18"/>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:51">
       <c r="B19" s="17">
         <v>180</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="AX19"/>
       <c r="AY19"/>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:51">
       <c r="B20" s="17">
         <v>183</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="AX20"/>
       <c r="AY20"/>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:51">
       <c r="B21" s="17">
         <v>184</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="AX21"/>
       <c r="AY21"/>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:51">
       <c r="B22" s="17">
         <v>185</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="AX22"/>
       <c r="AY22"/>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:51">
       <c r="B23" s="17">
         <v>186</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="AX23"/>
       <c r="AY23"/>
     </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:51">
       <c r="B24" s="17">
         <v>187</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="AX24"/>
       <c r="AY24"/>
     </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:51">
       <c r="B25" s="17">
         <v>188</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="AX25"/>
       <c r="AY25"/>
     </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:51">
       <c r="B26" s="17">
         <v>189</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="AX26"/>
       <c r="AY26"/>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:51">
       <c r="B27" s="17">
         <v>191</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="AX27"/>
       <c r="AY27"/>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:51">
       <c r="B28" s="17">
         <v>192</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="AX28"/>
       <c r="AY28"/>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:51">
       <c r="B29" s="17">
         <v>193</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="AX29"/>
       <c r="AY29"/>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:51">
       <c r="B30" s="17">
         <v>194</v>
       </c>
@@ -8514,7 +8514,7 @@
       <c r="AX30"/>
       <c r="AY30"/>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:51">
       <c r="B31" s="17">
         <v>285</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="AX31"/>
       <c r="AY31"/>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:51">
       <c r="B32" s="17">
         <v>286</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="AX32"/>
       <c r="AY32"/>
     </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:51">
       <c r="B33" s="17">
         <v>287</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="AX33"/>
       <c r="AY33"/>
     </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:51">
       <c r="B34" s="17">
         <v>289</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="AX34"/>
       <c r="AY34"/>
     </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:51">
       <c r="B35" s="17">
         <v>290</v>
       </c>
@@ -9249,7 +9249,7 @@
       <c r="AX35"/>
       <c r="AY35"/>
     </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:51">
       <c r="B36" s="17">
         <v>291</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="AX36"/>
       <c r="AY36"/>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:51">
       <c r="B37" s="17">
         <v>293</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="AX37"/>
       <c r="AY37"/>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:51">
       <c r="B38" s="17">
         <v>294</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="AX38"/>
       <c r="AY38"/>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:51">
       <c r="B39" s="17">
         <v>304</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="AX39"/>
       <c r="AY39"/>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:51">
       <c r="B40" s="17">
         <v>305</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="AX40"/>
       <c r="AY40"/>
     </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:51">
       <c r="B41" s="17">
         <v>307</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="AX41"/>
       <c r="AY41"/>
     </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:51">
       <c r="B42" s="17">
         <v>308</v>
       </c>
@@ -10278,7 +10278,7 @@
       <c r="AX42"/>
       <c r="AY42"/>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:51">
       <c r="B43" s="17">
         <v>309</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="AX43"/>
       <c r="AY43"/>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:51">
       <c r="B44" s="17">
         <v>310</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="AX44"/>
       <c r="AY44"/>
     </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:51">
       <c r="B45" s="17">
         <v>311</v>
       </c>
@@ -10719,7 +10719,7 @@
       <c r="AX45"/>
       <c r="AY45"/>
     </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:51">
       <c r="B46" s="17">
         <v>312</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="AX46"/>
       <c r="AY46"/>
     </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:51">
       <c r="B47" s="17">
         <v>313</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="AX47"/>
       <c r="AY47"/>
     </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:51">
       <c r="B48" s="17">
         <v>314</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="AX48"/>
       <c r="AY48"/>
     </row>
-    <row r="49" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:51">
       <c r="B49" s="17">
         <v>315</v>
       </c>
@@ -11307,7 +11307,7 @@
       <c r="AX49"/>
       <c r="AY49"/>
     </row>
-    <row r="50" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:51">
       <c r="B50" s="17">
         <v>316</v>
       </c>
@@ -11454,7 +11454,7 @@
       <c r="AX50"/>
       <c r="AY50"/>
     </row>
-    <row r="51" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:51">
       <c r="B51" s="17">
         <v>317</v>
       </c>
@@ -11601,7 +11601,7 @@
       <c r="AX51"/>
       <c r="AY51"/>
     </row>
-    <row r="52" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:51">
       <c r="B52" s="17">
         <v>318</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="AX52"/>
       <c r="AY52"/>
     </row>
-    <row r="53" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:51">
       <c r="B53" s="17">
         <v>319</v>
       </c>
@@ -11895,7 +11895,7 @@
       <c r="AX53"/>
       <c r="AY53"/>
     </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:51">
       <c r="B54" s="17">
         <v>320</v>
       </c>
@@ -12042,7 +12042,7 @@
       <c r="AX54"/>
       <c r="AY54"/>
     </row>
-    <row r="55" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:51">
       <c r="B55" s="17">
         <v>321</v>
       </c>
@@ -12189,7 +12189,7 @@
       <c r="AX55"/>
       <c r="AY55"/>
     </row>
-    <row r="56" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:51">
       <c r="B56" s="17">
         <v>322</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>0.26599387726206597</v>
       </c>
     </row>
-    <row r="57" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:51">
       <c r="B57" s="17">
         <v>323</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>0.26951333107846376</v>
       </c>
     </row>
-    <row r="58" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:51">
       <c r="B58" s="17">
         <v>332</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>0.27140545444178671</v>
       </c>
     </row>
-    <row r="59" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:51">
       <c r="B59" s="17">
         <v>333</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0.27345433088535209</v>
       </c>
     </row>
-    <row r="60" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:51">
       <c r="B60" s="17">
         <v>334</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="AX60"/>
       <c r="AY60"/>
     </row>
-    <row r="61" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:51">
       <c r="B61" s="17">
         <v>335</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>0.27961583349728658</v>
       </c>
     </row>
-    <row r="62" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:51">
       <c r="B62" s="17">
         <v>336</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>0.28421782661296185</v>
       </c>
     </row>
-    <row r="63" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:51">
       <c r="B63" s="17">
         <v>337</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:51">
       <c r="B64" s="17">
         <v>338</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:51">
       <c r="B65" s="17">
         <v>339</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:51">
       <c r="B66" s="17">
         <v>341</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:51">
       <c r="B67" s="17">
         <v>372</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:51">
       <c r="B68" s="17">
         <v>373</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:51">
       <c r="B69" s="17">
         <v>374</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:51">
       <c r="B70" s="17">
         <v>375</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:51">
       <c r="B71" s="17">
         <v>376</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:51">
       <c r="B72" s="17">
         <v>377</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:51">
       <c r="B73" s="17">
         <v>378</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:51">
       <c r="B74" s="17">
         <v>380</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:51">
       <c r="B75" s="17">
         <v>381</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:51">
       <c r="B76" s="17">
         <v>382</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:51">
       <c r="B77" s="17">
         <v>383</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:51">
       <c r="B78" s="17">
         <v>384</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:51">
       <c r="B79" s="17">
         <v>385</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:51">
       <c r="B80" s="17">
         <v>386</v>
       </c>
@@ -15417,7 +15417,7 @@
       <c r="AX80"/>
       <c r="AY80"/>
     </row>
-    <row r="81" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:51">
       <c r="B81" s="17">
         <v>387</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:51">
       <c r="B82" s="17">
         <v>388</v>
       </c>
@@ -15666,7 +15666,7 @@
       <c r="AX82"/>
       <c r="AY82"/>
     </row>
-    <row r="83" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:51">
       <c r="B83" s="17">
         <v>389</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:51" s="5" customFormat="1">
       <c r="B84" s="17">
         <v>390</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="AX84" s="6"/>
       <c r="AY84" s="6"/>
     </row>
-    <row r="85" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:51">
       <c r="B85" s="17">
         <v>391</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:51">
       <c r="B86" s="17">
         <v>612</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:51" s="5" customFormat="1">
       <c r="B87" s="17">
         <v>614</v>
       </c>
@@ -16287,7 +16287,7 @@
       <c r="AX87" s="6"/>
       <c r="AY87" s="6"/>
     </row>
-    <row r="88" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:51">
       <c r="B88" s="17">
         <v>617</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:51">
       <c r="B89" s="17">
         <v>618</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:51">
       <c r="B90" s="17">
         <v>619</v>
       </c>
@@ -16659,7 +16659,7 @@
       <c r="AX90"/>
       <c r="AY90"/>
     </row>
-    <row r="91" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:51">
       <c r="B91" s="17">
         <v>620</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="AX91"/>
       <c r="AY91"/>
     </row>
-    <row r="92" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:51">
       <c r="B92" s="17">
         <v>621</v>
       </c>
@@ -16911,7 +16911,7 @@
       <c r="AX92"/>
       <c r="AY92"/>
     </row>
-    <row r="93" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:51">
       <c r="B93" s="17">
         <v>622</v>
       </c>
@@ -17037,7 +17037,7 @@
       <c r="AX93"/>
       <c r="AY93"/>
     </row>
-    <row r="94" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:51">
       <c r="B94" s="17">
         <v>623</v>
       </c>
@@ -17163,7 +17163,7 @@
       <c r="AX94"/>
       <c r="AY94"/>
     </row>
-    <row r="95" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:51">
       <c r="B95" s="17">
         <v>624</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:51">
       <c r="B96" s="17">
         <v>625</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:51">
       <c r="B97" s="17">
         <v>626</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:51">
       <c r="B98" s="17">
         <v>627</v>
       </c>
@@ -17658,7 +17658,7 @@
       <c r="AX98"/>
       <c r="AY98"/>
     </row>
-    <row r="99" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:51">
       <c r="B99" s="17">
         <v>628</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="AX99"/>
       <c r="AY99"/>
     </row>
-    <row r="100" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:51">
       <c r="B100" s="17">
         <v>629</v>
       </c>
@@ -17910,7 +17910,7 @@
       <c r="AX100"/>
       <c r="AY100"/>
     </row>
-    <row r="101" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:51">
       <c r="B101" s="17">
         <v>631</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="AX101"/>
       <c r="AY101"/>
     </row>
-    <row r="102" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:51">
       <c r="B102" s="17">
         <v>662</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="AX102"/>
       <c r="AY102"/>
     </row>
-    <row r="103" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:51">
       <c r="B103" s="17">
         <v>663</v>
       </c>
@@ -18288,7 +18288,7 @@
       <c r="AX103"/>
       <c r="AY103"/>
     </row>
-    <row r="104" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:51">
       <c r="B104" s="17">
         <v>664</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="AX104"/>
       <c r="AY104"/>
     </row>
-    <row r="105" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:51">
       <c r="B105" s="17">
         <v>665</v>
       </c>
@@ -18540,7 +18540,7 @@
       <c r="AX105"/>
       <c r="AY105"/>
     </row>
-    <row r="106" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:51">
       <c r="B106" s="17">
         <v>666</v>
       </c>
@@ -18666,7 +18666,7 @@
       <c r="AX106"/>
       <c r="AY106"/>
     </row>
-    <row r="107" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:51">
       <c r="B107" s="17">
         <v>667</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="AX107"/>
       <c r="AY107"/>
     </row>
-    <row r="108" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:51">
       <c r="B108" s="17">
         <v>670</v>
       </c>
@@ -18918,7 +18918,7 @@
       <c r="AX108"/>
       <c r="AY108"/>
     </row>
-    <row r="109" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:51">
       <c r="B109" s="17">
         <v>671</v>
       </c>
@@ -19044,7 +19044,7 @@
       <c r="AX109"/>
       <c r="AY109"/>
     </row>
-    <row r="110" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:51">
       <c r="B110" s="17">
         <v>682</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="AX110"/>
       <c r="AY110"/>
     </row>
-    <row r="111" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:51">
       <c r="B111" s="17">
         <v>684</v>
       </c>
@@ -19296,7 +19296,7 @@
       <c r="AX111"/>
       <c r="AY111"/>
     </row>
-    <row r="112" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:51">
       <c r="B112" s="17">
         <v>685</v>
       </c>
@@ -19422,7 +19422,7 @@
       <c r="AX112"/>
       <c r="AY112"/>
     </row>
-    <row r="113" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:51">
       <c r="B113" s="17">
         <v>686</v>
       </c>
@@ -19548,7 +19548,7 @@
       <c r="AX113"/>
       <c r="AY113"/>
     </row>
-    <row r="114" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:51">
       <c r="B114" s="17">
         <v>687</v>
       </c>
@@ -19674,7 +19674,7 @@
       <c r="AX114"/>
       <c r="AY114"/>
     </row>
-    <row r="115" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:51">
       <c r="B115" s="17">
         <v>688</v>
       </c>
@@ -19800,7 +19800,7 @@
       <c r="AX115"/>
       <c r="AY115"/>
     </row>
-    <row r="116" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:51">
       <c r="B116" s="17">
         <v>689</v>
       </c>
@@ -19926,7 +19926,7 @@
       <c r="AX116"/>
       <c r="AY116"/>
     </row>
-    <row r="117" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:51">
       <c r="B117" s="17">
         <v>690</v>
       </c>
@@ -20052,7 +20052,7 @@
       <c r="AX117"/>
       <c r="AY117"/>
     </row>
-    <row r="118" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:51">
       <c r="B118" s="17">
         <v>691</v>
       </c>
@@ -20178,7 +20178,7 @@
       <c r="AX118"/>
       <c r="AY118"/>
     </row>
-    <row r="119" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:51">
       <c r="B119" s="17">
         <v>752</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="AX119"/>
       <c r="AY119"/>
     </row>
-    <row r="120" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:51">
       <c r="B120" s="17">
         <v>753</v>
       </c>
@@ -20430,7 +20430,7 @@
       <c r="AX120"/>
       <c r="AY120"/>
     </row>
-    <row r="121" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:51">
       <c r="B121" s="17">
         <v>754</v>
       </c>
@@ -20556,7 +20556,7 @@
       <c r="AX121"/>
       <c r="AY121"/>
     </row>
-    <row r="122" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:51">
       <c r="B122" s="17">
         <v>755</v>
       </c>
@@ -20682,7 +20682,7 @@
       <c r="AX122"/>
       <c r="AY122"/>
     </row>
-    <row r="123" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:51">
       <c r="B123" s="17">
         <v>756</v>
       </c>
@@ -20808,7 +20808,7 @@
       <c r="AX123"/>
       <c r="AY123"/>
     </row>
-    <row r="124" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:51">
       <c r="B124" s="17">
         <v>757</v>
       </c>
@@ -20934,7 +20934,7 @@
       <c r="AX124"/>
       <c r="AY124"/>
     </row>
-    <row r="125" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:51">
       <c r="B125" s="17">
         <v>758</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="AX125"/>
       <c r="AY125"/>
     </row>
-    <row r="126" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:51">
       <c r="B126" s="17">
         <v>759</v>
       </c>
@@ -21186,7 +21186,7 @@
       <c r="AX126"/>
       <c r="AY126"/>
     </row>
-    <row r="127" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:51">
       <c r="B127" s="17">
         <v>760</v>
       </c>
@@ -21312,7 +21312,7 @@
       <c r="AX127"/>
       <c r="AY127"/>
     </row>
-    <row r="128" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:51">
       <c r="B128" s="17">
         <v>761</v>
       </c>
@@ -21438,7 +21438,7 @@
       <c r="AX128"/>
       <c r="AY128"/>
     </row>
-    <row r="129" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:51">
       <c r="B129" s="17">
         <v>782</v>
       </c>
@@ -21564,7 +21564,7 @@
       <c r="AX129"/>
       <c r="AY129"/>
     </row>
-    <row r="130" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:51">
       <c r="B130" s="17">
         <v>783</v>
       </c>
@@ -21690,7 +21690,7 @@
       <c r="AX130"/>
       <c r="AY130"/>
     </row>
-    <row r="131" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:51">
       <c r="B131" s="17">
         <v>784</v>
       </c>
@@ -21816,7 +21816,7 @@
       <c r="AX131"/>
       <c r="AY131"/>
     </row>
-    <row r="132" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:51">
       <c r="B132" s="17">
         <v>785</v>
       </c>
@@ -21942,7 +21942,7 @@
       <c r="AX132"/>
       <c r="AY132"/>
     </row>
-    <row r="133" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:51">
       <c r="B133" s="17">
         <v>786</v>
       </c>
@@ -22068,7 +22068,7 @@
       <c r="AX133"/>
       <c r="AY133"/>
     </row>
-    <row r="134" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:51">
       <c r="B134" s="17">
         <v>788</v>
       </c>
@@ -22194,7 +22194,7 @@
       <c r="AX134"/>
       <c r="AY134"/>
     </row>
-    <row r="135" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:51">
       <c r="B135" s="17">
         <v>789</v>
       </c>
@@ -22320,7 +22320,7 @@
       <c r="AX135"/>
       <c r="AY135"/>
     </row>
-    <row r="136" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:51">
       <c r="B136" s="17">
         <v>832</v>
       </c>
@@ -22446,7 +22446,7 @@
       <c r="AX136"/>
       <c r="AY136"/>
     </row>
-    <row r="137" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:51">
       <c r="B137" s="17">
         <v>833</v>
       </c>
@@ -22572,7 +22572,7 @@
       <c r="AX137"/>
       <c r="AY137"/>
     </row>
-    <row r="138" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:51">
       <c r="B138" s="17">
         <v>834</v>
       </c>
@@ -22698,7 +22698,7 @@
       <c r="AX138"/>
       <c r="AY138"/>
     </row>
-    <row r="139" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:51">
       <c r="B139" s="17">
         <v>835</v>
       </c>
@@ -22824,7 +22824,7 @@
       <c r="AX139"/>
       <c r="AY139"/>
     </row>
-    <row r="140" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:51">
       <c r="B140" s="17">
         <v>836</v>
       </c>
@@ -22950,7 +22950,7 @@
       <c r="AX140"/>
       <c r="AY140"/>
     </row>
-    <row r="141" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:51">
       <c r="B141" s="17">
         <v>838</v>
       </c>
@@ -23076,7 +23076,7 @@
       <c r="AX141"/>
       <c r="AY141"/>
     </row>
-    <row r="142" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:51">
       <c r="B142" s="17">
         <v>839</v>
       </c>
@@ -23202,7 +23202,7 @@
       <c r="AX142"/>
       <c r="AY142"/>
     </row>
-    <row r="143" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:51">
       <c r="B143" s="17">
         <v>840</v>
       </c>
@@ -23328,7 +23328,7 @@
       <c r="AX143"/>
       <c r="AY143"/>
     </row>
-    <row r="144" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:51">
       <c r="B144" s="17">
         <v>841</v>
       </c>
@@ -23454,7 +23454,7 @@
       <c r="AX144"/>
       <c r="AY144"/>
     </row>
-    <row r="145" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:51">
       <c r="B145" s="17">
         <v>882</v>
       </c>
@@ -23580,7 +23580,7 @@
       <c r="AX145"/>
       <c r="AY145"/>
     </row>
-    <row r="146" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:51">
       <c r="B146" s="17">
         <v>884</v>
       </c>
@@ -23706,7 +23706,7 @@
       <c r="AX146"/>
       <c r="AY146"/>
     </row>
-    <row r="147" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:51">
       <c r="B147" s="17">
         <v>922</v>
       </c>
@@ -23832,7 +23832,7 @@
       <c r="AX147"/>
       <c r="AY147"/>
     </row>
-    <row r="148" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:51">
       <c r="B148" s="17">
         <v>923</v>
       </c>
@@ -23958,7 +23958,7 @@
       <c r="AX148"/>
       <c r="AY148"/>
     </row>
-    <row r="149" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:51">
       <c r="B149" s="17">
         <v>929</v>
       </c>
@@ -24084,7 +24084,7 @@
       <c r="AX149"/>
       <c r="AY149"/>
     </row>
-    <row r="150" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:51">
       <c r="B150" s="17">
         <v>930</v>
       </c>
@@ -24210,7 +24210,7 @@
       <c r="AX150"/>
       <c r="AY150"/>
     </row>
-    <row r="151" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:51">
       <c r="B151" s="17">
         <v>931</v>
       </c>
@@ -24336,7 +24336,7 @@
       <c r="AX151"/>
       <c r="AY151"/>
     </row>
-    <row r="152" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:51">
       <c r="B152" s="17">
         <v>952</v>
       </c>
@@ -24462,7 +24462,7 @@
       <c r="AX152"/>
       <c r="AY152"/>
     </row>
-    <row r="153" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:51">
       <c r="B153" s="17">
         <v>954</v>
       </c>
@@ -24588,7 +24588,7 @@
       <c r="AX153"/>
       <c r="AY153"/>
     </row>
-    <row r="154" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:51">
       <c r="B154" s="17">
         <v>955</v>
       </c>
@@ -24714,7 +24714,7 @@
       <c r="AX154"/>
       <c r="AY154"/>
     </row>
-    <row r="155" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:51">
       <c r="B155" s="17">
         <v>956</v>
       </c>
@@ -24840,7 +24840,7 @@
       <c r="AX155"/>
       <c r="AY155"/>
     </row>
-    <row r="156" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:51">
       <c r="B156" s="17">
         <v>957</v>
       </c>
@@ -24966,7 +24966,7 @@
       <c r="AX156"/>
       <c r="AY156"/>
     </row>
-    <row r="157" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:51">
       <c r="B157" s="17">
         <v>958</v>
       </c>
@@ -25092,7 +25092,7 @@
       <c r="AX157"/>
       <c r="AY157"/>
     </row>
-    <row r="158" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:51">
       <c r="B158" s="17">
         <v>959</v>
       </c>
@@ -25218,7 +25218,7 @@
       <c r="AX158"/>
       <c r="AY158"/>
     </row>
-    <row r="159" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:51">
       <c r="B159" s="17">
         <v>960</v>
       </c>
@@ -25344,7 +25344,7 @@
       <c r="AX159"/>
       <c r="AY159"/>
     </row>
-    <row r="160" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:51">
       <c r="B160" s="17">
         <v>990</v>
       </c>
@@ -25470,7 +25470,7 @@
       <c r="AX160"/>
       <c r="AY160"/>
     </row>
-    <row r="161" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:51">
       <c r="B161" s="19"/>
       <c r="C161" s="20"/>
       <c r="D161" s="68"/>
@@ -25589,7 +25589,7 @@
       <c r="AX161"/>
       <c r="AY161"/>
     </row>
-    <row r="162" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:51">
       <c r="B162" s="19"/>
       <c r="C162" s="20"/>
       <c r="D162" s="68"/>
@@ -25708,7 +25708,7 @@
       <c r="AX162"/>
       <c r="AY162"/>
     </row>
-    <row r="163" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:51">
       <c r="B163" s="19"/>
       <c r="C163" s="20"/>
       <c r="D163" s="68"/>
@@ -25827,7 +25827,7 @@
       <c r="AX163"/>
       <c r="AY163"/>
     </row>
-    <row r="164" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:51">
       <c r="B164" s="19"/>
       <c r="C164" s="20"/>
       <c r="D164" s="68"/>
@@ -25946,7 +25946,7 @@
       <c r="AX164"/>
       <c r="AY164"/>
     </row>
-    <row r="165" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:51">
       <c r="B165" s="19"/>
       <c r="C165" s="20"/>
       <c r="D165" s="68"/>
@@ -26065,7 +26065,7 @@
       <c r="AX165"/>
       <c r="AY165"/>
     </row>
-    <row r="166" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:51">
       <c r="B166" s="19"/>
       <c r="C166" s="20"/>
       <c r="D166" s="68"/>
@@ -26184,7 +26184,7 @@
       <c r="AX166"/>
       <c r="AY166"/>
     </row>
-    <row r="167" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:51">
       <c r="B167" s="19"/>
       <c r="C167" s="20"/>
       <c r="D167" s="68"/>
@@ -26303,7 +26303,7 @@
       <c r="AX167"/>
       <c r="AY167"/>
     </row>
-    <row r="168" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:51">
       <c r="B168" s="19"/>
       <c r="C168" s="20"/>
       <c r="D168" s="68"/>
@@ -26422,7 +26422,7 @@
       <c r="AX168"/>
       <c r="AY168"/>
     </row>
-    <row r="169" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:51">
       <c r="B169" s="19"/>
       <c r="C169" s="20"/>
       <c r="D169" s="68"/>
@@ -26541,7 +26541,7 @@
       <c r="AX169"/>
       <c r="AY169"/>
     </row>
-    <row r="170" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:51">
       <c r="B170" s="19"/>
       <c r="C170" s="20"/>
       <c r="D170" s="68"/>
@@ -26660,7 +26660,7 @@
       <c r="AX170"/>
       <c r="AY170"/>
     </row>
-    <row r="171" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:51">
       <c r="B171" s="19"/>
       <c r="C171" s="20"/>
       <c r="D171" s="68"/>
@@ -26779,7 +26779,7 @@
       <c r="AX171"/>
       <c r="AY171"/>
     </row>
-    <row r="172" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:51">
       <c r="B172" s="19"/>
       <c r="C172" s="20"/>
       <c r="D172" s="68"/>
@@ -26898,7 +26898,7 @@
       <c r="AX172"/>
       <c r="AY172"/>
     </row>
-    <row r="173" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:51">
       <c r="B173" s="19"/>
       <c r="C173" s="20"/>
       <c r="D173" s="68"/>
@@ -27017,7 +27017,7 @@
       <c r="AX173"/>
       <c r="AY173"/>
     </row>
-    <row r="174" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:51">
       <c r="B174" s="19"/>
       <c r="C174" s="20"/>
       <c r="D174" s="68"/>
@@ -27136,7 +27136,7 @@
       <c r="AX174"/>
       <c r="AY174"/>
     </row>
-    <row r="175" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:51">
       <c r="B175" s="19"/>
       <c r="C175" s="20"/>
       <c r="D175" s="68"/>
@@ -27255,7 +27255,7 @@
       <c r="AX175"/>
       <c r="AY175"/>
     </row>
-    <row r="176" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:51">
       <c r="B176" s="19"/>
       <c r="C176" s="20"/>
       <c r="D176" s="68"/>
@@ -27371,7 +27371,7 @@
       </c>
       <c r="AW176"/>
     </row>
-    <row r="177" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:51">
       <c r="B177" s="19"/>
       <c r="C177" s="20"/>
       <c r="D177" s="68"/>
@@ -27487,7 +27487,7 @@
       </c>
       <c r="AW177"/>
     </row>
-    <row r="178" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:51">
       <c r="B178" s="19"/>
       <c r="C178" s="20"/>
       <c r="D178" s="68"/>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="AW178"/>
     </row>
-    <row r="179" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:51">
       <c r="B179" s="19"/>
       <c r="C179" s="20"/>
       <c r="D179" s="68"/>
@@ -27719,7 +27719,7 @@
       </c>
       <c r="AW179"/>
     </row>
-    <row r="180" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:51">
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
       <c r="D180" s="68"/>
@@ -27835,7 +27835,7 @@
       </c>
       <c r="AW180"/>
     </row>
-    <row r="181" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:51">
       <c r="B181" s="19"/>
       <c r="C181" s="20"/>
       <c r="D181" s="68"/>
@@ -27951,7 +27951,7 @@
       </c>
       <c r="AW181"/>
     </row>
-    <row r="182" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:51">
       <c r="B182" s="19"/>
       <c r="C182" s="20"/>
       <c r="D182" s="68"/>
@@ -28067,7 +28067,7 @@
       </c>
       <c r="AW182"/>
     </row>
-    <row r="183" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:51">
       <c r="B183" s="19"/>
       <c r="C183" s="20"/>
       <c r="D183" s="68"/>
@@ -28183,7 +28183,7 @@
       </c>
       <c r="AW183"/>
     </row>
-    <row r="184" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:51">
       <c r="B184" s="19"/>
       <c r="C184" s="20"/>
       <c r="D184" s="68"/>
@@ -28302,7 +28302,7 @@
       <c r="AX184"/>
       <c r="AY184"/>
     </row>
-    <row r="185" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:51">
       <c r="B185" s="19"/>
       <c r="C185" s="20"/>
       <c r="D185" s="68"/>
@@ -28421,7 +28421,7 @@
       <c r="AX185"/>
       <c r="AY185"/>
     </row>
-    <row r="186" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:51">
       <c r="B186" s="19"/>
       <c r="C186" s="20"/>
       <c r="D186" s="68"/>
@@ -28540,7 +28540,7 @@
       <c r="AX186"/>
       <c r="AY186"/>
     </row>
-    <row r="187" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:51">
       <c r="B187" s="19"/>
       <c r="C187" s="20"/>
       <c r="D187" s="68"/>
@@ -28659,7 +28659,7 @@
       <c r="AX187"/>
       <c r="AY187"/>
     </row>
-    <row r="188" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:51">
       <c r="B188" s="19"/>
       <c r="C188" s="20"/>
       <c r="D188" s="68"/>
@@ -28778,7 +28778,7 @@
       <c r="AX188"/>
       <c r="AY188"/>
     </row>
-    <row r="189" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:51">
       <c r="B189" s="19"/>
       <c r="C189" s="20"/>
       <c r="D189" s="68"/>
@@ -28897,7 +28897,7 @@
       <c r="AX189"/>
       <c r="AY189"/>
     </row>
-    <row r="190" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:51">
       <c r="B190" s="19"/>
       <c r="C190" s="20"/>
       <c r="D190" s="68"/>
@@ -29016,7 +29016,7 @@
       <c r="AX190"/>
       <c r="AY190"/>
     </row>
-    <row r="191" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:51">
       <c r="B191" s="19"/>
       <c r="C191" s="20"/>
       <c r="D191" s="68"/>
@@ -29135,7 +29135,7 @@
       <c r="AX191"/>
       <c r="AY191"/>
     </row>
-    <row r="192" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:51">
       <c r="B192" s="19"/>
       <c r="C192" s="20"/>
       <c r="D192" s="68"/>
@@ -29254,7 +29254,7 @@
       <c r="AX192"/>
       <c r="AY192"/>
     </row>
-    <row r="193" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:51">
       <c r="B193" s="19"/>
       <c r="C193" s="20"/>
       <c r="D193" s="68"/>
@@ -29373,7 +29373,7 @@
       <c r="AX193"/>
       <c r="AY193"/>
     </row>
-    <row r="194" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:51">
       <c r="B194" s="19"/>
       <c r="C194" s="20"/>
       <c r="D194" s="68"/>
@@ -29488,7 +29488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="195" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:51">
       <c r="B195" s="19"/>
       <c r="C195" s="20"/>
       <c r="D195" s="68"/>
@@ -29603,7 +29603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:51">
       <c r="B196" s="19"/>
       <c r="C196" s="20"/>
       <c r="D196" s="68"/>
@@ -29718,7 +29718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:51">
       <c r="B197" s="19"/>
       <c r="C197" s="20"/>
       <c r="D197" s="68"/>
@@ -29833,7 +29833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="198" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:51">
       <c r="B198" s="19"/>
       <c r="C198" s="20"/>
       <c r="D198" s="68"/>
@@ -29948,7 +29948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:51">
       <c r="B199" s="19"/>
       <c r="C199" s="20"/>
       <c r="D199" s="68"/>
@@ -30063,7 +30063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="200" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:51">
       <c r="B200" s="19"/>
       <c r="C200" s="20"/>
       <c r="D200" s="68"/>
@@ -30178,7 +30178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="201" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:51">
       <c r="B201" s="19"/>
       <c r="C201" s="20"/>
       <c r="D201" s="68"/>
@@ -30293,7 +30293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:51">
       <c r="B202" s="19"/>
       <c r="C202" s="20"/>
       <c r="D202" s="68"/>
@@ -30408,7 +30408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="203" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:51">
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="68"/>
@@ -30523,7 +30523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="204" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:51">
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="68"/>
@@ -30638,7 +30638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="205" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:51">
       <c r="B205" s="19"/>
       <c r="C205" s="20"/>
       <c r="D205" s="68"/>
@@ -30753,7 +30753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:51">
       <c r="B206" s="19"/>
       <c r="C206" s="20"/>
       <c r="D206" s="68"/>
@@ -30868,7 +30868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="207" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:51">
       <c r="B207" s="21"/>
       <c r="C207" s="22"/>
       <c r="D207" s="69"/>
@@ -30996,7 +30996,7 @@
     <mergeCell ref="F10:M10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -31013,9 +31013,9 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -31068,7 +31068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -31280,7 +31280,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -31598,7 +31598,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -31651,7 +31651,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -31757,7 +31757,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -31810,7 +31810,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -31863,7 +31863,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -31916,7 +31916,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -31969,7 +31969,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -32022,7 +32022,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -32234,7 +32234,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -32340,7 +32340,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -32446,7 +32446,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -32499,7 +32499,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -32552,7 +32552,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -32605,7 +32605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -32658,7 +32658,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -33082,7 +33082,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -33135,7 +33135,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -33188,7 +33188,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -33241,7 +33241,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -33294,7 +33294,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -33347,7 +33347,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -33453,7 +33453,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -33506,7 +33506,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -33559,7 +33559,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -33612,7 +33612,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>116</v>
       </c>
